--- a/medicine/Enfance/Comme_un_million_de_papillons_noirs/Comme_un_million_de_papillons_noirs.xlsx
+++ b/medicine/Enfance/Comme_un_million_de_papillons_noirs/Comme_un_million_de_papillons_noirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme un million de papillons noirs  est un livre pour enfants écrit par Laura Nsafou et illustré par Barbara Brun, paru en 2018 aux éditions Cambourakis[1],[2],[3],[4],[5],[6],[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme un million de papillons noirs  est un livre pour enfants écrit par Laura Nsafou et illustré par Barbara Brun, paru en 2018 aux éditions Cambourakis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il relate l'histoire d'une petite fille nommée Adé qui possède de magnifiques cheveux. Mais ses camarades d'école se moquent parce qu'ils sont différents. « Tes deux nattes ressemblent toujours à des carottes tordues, mais sous la pluie, c'est encore pire ! » lui disent-ils. En larmes, Adé explique à sa mère qu'elle ne veut plus de sa chevelure crépue. La mère et les tantes de Adé, afro-caribéennes, la consolent et lui apprennent à aimer sa chevelure qui ressemble à des papillons endormis sur sa tête.
 </t>
@@ -542,10 +556,12 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre vise à développer l'estime de soi des petites filles noires [9],[10].
-L'autrice emploie un vocabulaire très précis et propre à la diaspora africaine, souhaitant ainsi faire référence à un imaginaire culturellement et géographiquement situé[11]. Quelques exemples sont les divers termes afro-martiniquais employés pour nommer les coiffures afro : les vanilles, les bantu ; les fruits et tubercules suivants : christophine, safou et l'igname.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre vise à développer l'estime de soi des petites filles noires ,.
+L'autrice emploie un vocabulaire très précis et propre à la diaspora africaine, souhaitant ainsi faire référence à un imaginaire culturellement et géographiquement situé. Quelques exemples sont les divers termes afro-martiniquais employés pour nommer les coiffures afro : les vanilles, les bantu ; les fruits et tubercules suivants : christophine, safou et l'igname.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Historique et origines du titre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ayant eu des difficultés à trouver une maison d'édition qui veuille publier Comme un million de papillons noirs[11], celui-ci a été édité pour la première fois à la suite du succès d'un financement participatif qui a atteint 220 % de l'objectif initial[12]. Depuis, le livre a connu huit ré-éditions, après avoir été d'abord été publié aux éditions Bilibok[2].
-Laura Nsafou s'est inspirée d'une citation de l'autrice afro-américaine Toni Morrison dans Délivrances (Morrison): « Her clothes were white, her hair like a million black butterflies asleep on her head. »[10]. L'autrice a elle-même vécu la honte de ses nattes afro et le fait d'avoir demandé à sa maman de les lui défaire, tel l'héroïne Adé[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant eu des difficultés à trouver une maison d'édition qui veuille publier Comme un million de papillons noirs, celui-ci a été édité pour la première fois à la suite du succès d'un financement participatif qui a atteint 220 % de l'objectif initial. Depuis, le livre a connu huit ré-éditions, après avoir été d'abord été publié aux éditions Bilibok.
+Laura Nsafou s'est inspirée d'une citation de l'autrice afro-américaine Toni Morrison dans Délivrances (Morrison): « Her clothes were white, her hair like a million black butterflies asleep on her head. ». L'autrice a elle-même vécu la honte de ses nattes afro et le fait d'avoir demandé à sa maman de les lui défaire, tel l'héroïne Adé.
 </t>
         </is>
       </c>
